--- a/team_1/data_21_전처리/범죄/범죄발생_검거_발생율_검거율_2021.xlsx
+++ b/team_1/data_21_전처리/범죄/범죄발생_검거_발생율_검거율_2021.xlsx
@@ -497,7 +497,7 @@
         <v>1.76345512357841</v>
       </c>
       <c r="H2" t="n">
-        <v>1.791415510862286</v>
+        <v>101.5855457227139</v>
       </c>
     </row>
     <row r="3">
@@ -527,7 +527,7 @@
         <v>2.170927329706268</v>
       </c>
       <c r="H3" t="n">
-        <v>1.572233983625092</v>
+        <v>72.42222998951415</v>
       </c>
     </row>
     <row r="4">
@@ -557,7 +557,7 @@
         <v>1.003434688244095</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6991592388899425</v>
+        <v>69.67660646787064</v>
       </c>
     </row>
     <row r="5">
@@ -587,7 +587,7 @@
         <v>0.7216269407391209</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5159359282746556</v>
+        <v>71.49621212121212</v>
       </c>
     </row>
     <row r="6">
@@ -617,7 +617,7 @@
         <v>0.875429277962266</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6244558698001004</v>
+        <v>71.33138969873663</v>
       </c>
     </row>
     <row r="7">
@@ -647,7 +647,7 @@
         <v>0.8406106714090101</v>
       </c>
       <c r="H7" t="n">
-        <v>0.600273858968313</v>
+        <v>71.40925988509632</v>
       </c>
     </row>
     <row r="8">
@@ -677,7 +677,7 @@
         <v>0.8191178534519056</v>
       </c>
       <c r="H8" t="n">
-        <v>0.613700447835462</v>
+        <v>74.9221183800623</v>
       </c>
     </row>
     <row r="9">
@@ -707,7 +707,7 @@
         <v>0.5477777626311509</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4060053346420018</v>
+        <v>74.11862297801743</v>
       </c>
     </row>
     <row r="10">
@@ -737,7 +737,7 @@
         <v>0.7605027713236582</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6319345062020141</v>
+        <v>83.09430682312038</v>
       </c>
     </row>
     <row r="11">
@@ -767,7 +767,7 @@
         <v>0.5823911226058558</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4051688777698803</v>
+        <v>69.56989247311827</v>
       </c>
     </row>
     <row r="12">
@@ -797,7 +797,7 @@
         <v>0.6651182842472803</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4470371650619677</v>
+        <v>67.21167883211679</v>
       </c>
     </row>
     <row r="13">
@@ -827,7 +827,7 @@
         <v>0.6798372917160024</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5077822927952755</v>
+        <v>74.691738594328</v>
       </c>
     </row>
     <row r="14">
@@ -857,7 +857,7 @@
         <v>0.7216648345207962</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5049753056304429</v>
+        <v>69.97366110623354</v>
       </c>
     </row>
     <row r="15">
@@ -887,7 +887,7 @@
         <v>0.934811426881374</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6282249673872284</v>
+        <v>67.20338983050847</v>
       </c>
     </row>
     <row r="16">
@@ -917,7 +917,7 @@
         <v>0.6692756949701101</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4628324457753498</v>
+        <v>69.15422885572139</v>
       </c>
     </row>
     <row r="17">
@@ -947,7 +947,7 @@
         <v>0.6719929351050765</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5250376012473955</v>
+        <v>78.13141683778234</v>
       </c>
     </row>
     <row r="18">
@@ -977,7 +977,7 @@
         <v>0.8277080370307933</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5772111985145894</v>
+        <v>69.73608720596673</v>
       </c>
     </row>
     <row r="19">
@@ -1007,7 +1007,7 @@
         <v>0.9959533016729891</v>
       </c>
       <c r="H19" t="n">
-        <v>0.710928535552552</v>
+        <v>71.38171381713818</v>
       </c>
     </row>
     <row r="20">
@@ -1037,7 +1037,7 @@
         <v>1.042383788799425</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6926776217985173</v>
+        <v>66.45130413974634</v>
       </c>
     </row>
     <row r="21">
@@ -1067,7 +1067,7 @@
         <v>0.667150145550811</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4637847268006207</v>
+        <v>69.51729380463702</v>
       </c>
     </row>
     <row r="22">
@@ -1097,7 +1097,7 @@
         <v>0.8897805381530446</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6274914956281822</v>
+        <v>70.52205220522052</v>
       </c>
     </row>
     <row r="23">
@@ -1127,7 +1127,7 @@
         <v>0.8784934893924795</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5860628065175758</v>
+        <v>66.71225382932167</v>
       </c>
     </row>
     <row r="24">
@@ -1157,7 +1157,7 @@
         <v>1.14280401636296</v>
       </c>
       <c r="H24" t="n">
-        <v>0.817590182223875</v>
+        <v>71.54246664497234</v>
       </c>
     </row>
     <row r="25">
@@ -1187,7 +1187,7 @@
         <v>0.7099771825322118</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4918933979953762</v>
+        <v>69.28298684768774</v>
       </c>
     </row>
     <row r="26">
@@ -1217,7 +1217,7 @@
         <v>0.7413092318510007</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5277915930645355</v>
+        <v>71.19722382880278</v>
       </c>
     </row>
   </sheetData>
